--- a/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7461142.857142857</v>
+        <v>7852571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1123571.428571429</v>
+        <v>-839285.7142857146</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>845000</v>
+        <v>915000</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4237857.142857143</v>
+        <v>4736428.571428571</v>
       </c>
     </row>
     <row r="9">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>425000</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9270500</v>
+        <v>9743000</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13383380.95238095</v>
+        <v>15257190.47619048</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11398714.28571429</v>
+        <v>11689428.57142857</v>
       </c>
     </row>
     <row r="14">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1654000</v>
+        <v>-1584000</v>
       </c>
     </row>
     <row r="15">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>44244023.80952381</v>
+        <v>48265333.33333333</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7852571.428571429</v>
+        <v>7892571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9743000</v>
+        <v>9943000</v>
       </c>
     </row>
     <row r="12">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11689428.57142857</v>
+        <v>10689428.57142857</v>
       </c>
     </row>
     <row r="14">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1584000</v>
+        <v>-3584000</v>
       </c>
     </row>
     <row r="15">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>48265333.33333333</v>
+        <v>45505333.33333333</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/CẦN THƠ/Tổng hợp lương nhân viên tại CẦN THƠ 7-2024.xlsx.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7892571.428571429</v>
+        <v>7862571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>915000</v>
+        <v>1065000</v>
       </c>
     </row>
     <row r="7">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9943000</v>
+        <v>10238000</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15257190.47619048</v>
+        <v>15757190.47619048</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10689428.57142857</v>
+        <v>17939428.57142857</v>
       </c>
     </row>
     <row r="14">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>45505333.33333333</v>
+        <v>53670333.33333333</v>
       </c>
     </row>
   </sheetData>
